--- a/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C007E-FF5A-4A40-B957-C59EB8B8C2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CED844-2D96-40C8-A20E-A72161BE4C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF3B9D1A-329E-4EEE-86CA-C40B100D306E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="96">
   <si>
     <t>Activity</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Density: 0.669 kg/Nm3, LHV: 22.6 MJ/kg</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F37E1-4952-4F96-8F5E-5FDDDA657F4D}">
-  <dimension ref="A1:M294"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -960,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1125,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -1219,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1446,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1602,7 +1605,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2">
         <v>0.17937219730941703</v>
@@ -1611,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
         <v>54</v>
@@ -1705,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -1932,7 +1935,7 @@
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -2097,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
         <v>54</v>
@@ -2191,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -2418,7 +2421,7 @@
         <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -2583,7 +2586,7 @@
         <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -2677,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -2904,7 +2907,7 @@
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3069,7 +3072,7 @@
         <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E124" t="s">
         <v>54</v>
@@ -3163,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -3390,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -3555,7 +3558,7 @@
         <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E149" t="s">
         <v>54</v>
@@ -3649,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -3876,7 +3879,7 @@
         <v>31</v>
       </c>
       <c r="D168" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -4041,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="D174" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
         <v>54</v>
@@ -4135,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -4362,7 +4365,7 @@
         <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -4527,7 +4530,7 @@
         <v>35</v>
       </c>
       <c r="D199" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E199" t="s">
         <v>54</v>
@@ -4621,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
@@ -4848,7 +4851,7 @@
         <v>31</v>
       </c>
       <c r="D218" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -5013,7 +5016,7 @@
         <v>35</v>
       </c>
       <c r="D224" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E224" t="s">
         <v>54</v>
@@ -5107,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="B230" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
@@ -5334,7 +5337,7 @@
         <v>31</v>
       </c>
       <c r="D243" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -5499,7 +5502,7 @@
         <v>35</v>
       </c>
       <c r="D249" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E249" t="s">
         <v>54</v>
@@ -5593,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -5820,7 +5823,7 @@
         <v>31</v>
       </c>
       <c r="D268" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
@@ -5951,7 +5954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>35</v>
       </c>
       <c r="D273" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -5974,7 +5977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>53</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>35</v>
       </c>
       <c r="D274" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E274" t="s">
         <v>54</v>
@@ -6006,7 +6009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>59</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>63</v>
       </c>
@@ -6058,23 +6061,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>3</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -6090,231 +6093,717 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>7</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="M283" s="2"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>92</v>
+      </c>
+      <c r="B284" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" t="s">
+        <v>15</v>
+      </c>
+      <c r="I286" t="s">
+        <v>2</v>
+      </c>
+      <c r="J286" t="s">
+        <v>6</v>
+      </c>
+      <c r="K286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1.8385650224215247E-4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>18</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" t="s">
+        <v>19</v>
+      </c>
+      <c r="G287" t="s">
+        <v>20</v>
+      </c>
+      <c r="I287" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288">
+        <v>1.3713596052052344</v>
+      </c>
+      <c r="C288" t="s">
+        <v>18</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" t="s">
+        <v>19</v>
+      </c>
+      <c r="G288" t="s">
+        <v>20</v>
+      </c>
+      <c r="I288" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" s="2">
+        <v>5.2130044843049324E-6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289" t="s">
+        <v>19</v>
+      </c>
+      <c r="G289" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" s="2">
+        <v>4.2869955156950664E-4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" t="s">
+        <v>19</v>
+      </c>
+      <c r="G290" t="s">
+        <v>20</v>
+      </c>
+      <c r="H290" t="s">
+        <v>27</v>
+      </c>
+      <c r="I290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="2">
+        <v>8.9686098654708509E-6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
+        <v>19</v>
+      </c>
+      <c r="G291" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="2">
+        <v>8.2448430493273531E-4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>18</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" t="s">
+        <v>19</v>
+      </c>
+      <c r="G292" t="s">
+        <v>20</v>
+      </c>
+      <c r="I292" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>31</v>
+      </c>
+      <c r="D293" t="s">
+        <v>60</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" t="s">
+        <v>32</v>
+      </c>
+      <c r="I293" t="s">
+        <v>6</v>
+      </c>
+      <c r="J293" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>34</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2.8160765678334782E-2</v>
+      </c>
+      <c r="C294" t="s">
+        <v>35</v>
+      </c>
+      <c r="D294" t="s">
+        <v>36</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" t="s">
+        <v>37</v>
+      </c>
+      <c r="I294" t="s">
+        <v>38</v>
+      </c>
+      <c r="J294" t="s">
+        <v>39</v>
+      </c>
+      <c r="K294" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>41</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1.1043437520915599E-3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" t="s">
+        <v>36</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" t="s">
+        <v>37</v>
+      </c>
+      <c r="I295" t="s">
+        <v>42</v>
+      </c>
+      <c r="J295" t="s">
+        <v>43</v>
+      </c>
+      <c r="K295" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>44</v>
+      </c>
+      <c r="B296" s="2">
+        <v>5.9790732436472346E-10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>35</v>
+      </c>
+      <c r="D296" t="s">
+        <v>36</v>
+      </c>
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
+        <v>37</v>
+      </c>
+      <c r="I296" t="s">
+        <v>45</v>
+      </c>
+      <c r="J296" t="s">
+        <v>46</v>
+      </c>
+      <c r="K296" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>48</v>
+      </c>
+      <c r="B297" s="2">
+        <v>6.6260625125493598E-5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>35</v>
+      </c>
+      <c r="D297" t="s">
+        <v>36</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="G297" t="s">
+        <v>37</v>
+      </c>
+      <c r="I297" t="s">
+        <v>49</v>
+      </c>
+      <c r="J297" t="s">
+        <v>50</v>
+      </c>
+      <c r="K297" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>51</v>
+      </c>
+      <c r="B298" s="2">
+        <v>6.6260625125493591E-2</v>
+      </c>
+      <c r="C298" t="s">
+        <v>35</v>
+      </c>
+      <c r="D298" t="s">
+        <v>71</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>37</v>
+      </c>
+      <c r="J298" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>53</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.17937219730941703</v>
+      </c>
+      <c r="C299" t="s">
+        <v>35</v>
+      </c>
+      <c r="D299" t="s">
+        <v>60</v>
+      </c>
+      <c r="E299" t="s">
+        <v>54</v>
+      </c>
+      <c r="G299" t="s">
+        <v>37</v>
+      </c>
+      <c r="H299" t="s">
+        <v>55</v>
+      </c>
+      <c r="I299" t="s">
+        <v>56</v>
+      </c>
+      <c r="J299" t="s">
+        <v>57</v>
+      </c>
+      <c r="K299" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>59</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1.1457566427949933E-2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>31</v>
+      </c>
+      <c r="D300" t="s">
+        <v>60</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" t="s">
+        <v>37</v>
+      </c>
+      <c r="I300" t="s">
+        <v>61</v>
+      </c>
+      <c r="J300" t="s">
+        <v>62</v>
+      </c>
+      <c r="K300" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>63</v>
+      </c>
+      <c r="B301" s="2">
+        <v>2.20868750418312</v>
+      </c>
+      <c r="C301" t="s">
+        <v>35</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" t="s">
+        <v>64</v>
+      </c>
+      <c r="G301" t="s">
+        <v>37</v>
+      </c>
+      <c r="J301" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>66</v>
+      </c>
+      <c r="B304" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8</v>
+      </c>
+      <c r="M308" s="2"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
         <v>68</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B309" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
         <v>92</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B310" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
+    <row r="311" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
         <v>10</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B312" t="s">
         <v>11</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C312" t="s">
         <v>12</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D312" t="s">
         <v>3</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E312" t="s">
         <v>7</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F312" t="s">
         <v>14</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G312" t="s">
         <v>69</v>
       </c>
-      <c r="H287" t="s">
+      <c r="H312" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
         <v>59</v>
       </c>
-      <c r="B288">
+      <c r="B313">
         <v>1</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C313" t="s">
         <v>31</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D313" t="s">
         <v>60</v>
       </c>
-      <c r="E288" t="s">
-        <v>8</v>
-      </c>
-      <c r="F288" t="s">
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" t="s">
         <v>32</v>
       </c>
-      <c r="H288" t="s">
+      <c r="H313" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
         <v>70</v>
       </c>
-      <c r="B289">
+      <c r="B314">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="C289" t="s">
-        <v>35</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="C314" t="s">
+        <v>35</v>
+      </c>
+      <c r="D314" t="s">
         <v>71</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E314" t="s">
         <v>72</v>
       </c>
-      <c r="F289" t="s">
-        <v>37</v>
-      </c>
-      <c r="H289" t="s">
+      <c r="F314" t="s">
+        <v>37</v>
+      </c>
+      <c r="H314" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
         <v>74</v>
       </c>
-      <c r="B290">
+      <c r="B315">
         <v>3.4339655648031599E-10</v>
       </c>
-      <c r="C290" t="s">
-        <v>35</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="C315" t="s">
+        <v>35</v>
+      </c>
+      <c r="D315" t="s">
         <v>36</v>
       </c>
-      <c r="E290" t="s">
-        <v>8</v>
-      </c>
-      <c r="F290" t="s">
-        <v>37</v>
-      </c>
-      <c r="G290" t="s">
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315" t="s">
+        <v>37</v>
+      </c>
+      <c r="G315" t="s">
         <v>75</v>
       </c>
-      <c r="H290" t="s">
+      <c r="H315" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
         <v>77</v>
       </c>
-      <c r="B291">
+      <c r="B316">
         <v>1.8660000000000003E-2</v>
       </c>
-      <c r="C291" t="s">
-        <v>35</v>
-      </c>
-      <c r="D291" t="s">
+      <c r="C316" t="s">
+        <v>35</v>
+      </c>
+      <c r="D316" t="s">
         <v>36</v>
       </c>
-      <c r="E291" t="s">
-        <v>8</v>
-      </c>
-      <c r="F291" t="s">
-        <v>37</v>
-      </c>
-      <c r="H291" t="s">
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+      <c r="F316" t="s">
+        <v>37</v>
+      </c>
+      <c r="H316" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
         <v>79</v>
       </c>
-      <c r="B292">
+      <c r="B317">
         <v>8.1000000000000013E-3</v>
       </c>
-      <c r="C292" t="s">
-        <v>35</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="C317" t="s">
+        <v>35</v>
+      </c>
+      <c r="D317" t="s">
         <v>36</v>
       </c>
-      <c r="E292" t="s">
-        <v>8</v>
-      </c>
-      <c r="F292" t="s">
-        <v>37</v>
-      </c>
-      <c r="H292" t="s">
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>37</v>
+      </c>
+      <c r="H317" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
         <v>51</v>
       </c>
-      <c r="B293">
+      <c r="B318">
         <v>0.996</v>
       </c>
-      <c r="C293" t="s">
-        <v>35</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="C318" t="s">
+        <v>35</v>
+      </c>
+      <c r="D318" t="s">
         <v>71</v>
       </c>
-      <c r="E293" t="s">
-        <v>8</v>
-      </c>
-      <c r="F293" t="s">
-        <v>37</v>
-      </c>
-      <c r="H293" t="s">
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" t="s">
+        <v>37</v>
+      </c>
+      <c r="H318" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
         <v>53</v>
       </c>
-      <c r="B294">
+      <c r="B319">
         <v>3.44E-2</v>
       </c>
-      <c r="C294" t="s">
-        <v>35</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="C319" t="s">
+        <v>35</v>
+      </c>
+      <c r="D319" t="s">
         <v>60</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E319" t="s">
         <v>54</v>
       </c>
-      <c r="F294" t="s">
-        <v>37</v>
-      </c>
-      <c r="H294" t="s">
+      <c r="F319" t="s">
+        <v>37</v>
+      </c>
+      <c r="H319" t="s">
         <v>57</v>
       </c>
     </row>

--- a/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
@@ -316,9 +316,6 @@
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source, Zhang et al., 2020, Sustainable Energy and Fuels, https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
-    <t>Density: 0.669 kg/Nm3, LHV: 22.6 MJ/kg</t>
-  </si>
-  <si>
     <t>RU</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>Raw biogas volume * density * 67% CH4 * (16/12) + 32% CO2 * (44/12)</t>
+  </si>
+  <si>
+    <t>Density: 0.669 kg/Nm3, LHV: 55.5 MJ/kg</t>
   </si>
 </sst>
 </file>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M331"/>
+  <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300:XFD300"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -870,29 +870,29 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2">
+        <f>2.65+B13</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2">
-        <f>(B27*0.669*0.67*(16/12))+(B27*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>98</v>
-      </c>
-      <c r="I14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1166,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>54</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1295,12 +1295,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1381,34 +1381,34 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="2">
+        <f>2.65+B39</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2">
-        <f>(B53*0.669*0.67*(16/12))+(B53*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
         <v>97</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>98</v>
       </c>
-      <c r="I40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1430,8 +1430,9 @@
       <c r="I41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -1896,29 +1897,29 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="2">
+        <f>2.65+B65</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="2">
-        <f>(B79*0.669*0.67*(16/12))+(B79*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
         <v>97</v>
       </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>98</v>
-      </c>
-      <c r="I66" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2278,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -2409,29 +2410,29 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="2">
+        <f>2.65+B91</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="2">
-        <f>(B105*0.669*0.67*(16/12))+(B105*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
         <v>97</v>
       </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>98</v>
-      </c>
-      <c r="I92" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -2791,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -2922,29 +2923,29 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="2">
+        <f>2.65+B117</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="2">
-        <f>(B131*0.669*0.67*(16/12))+(B131*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C118" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
         <v>97</v>
       </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>98</v>
-      </c>
-      <c r="I118" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -3304,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -3435,29 +3436,29 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" s="2">
+        <f>2.65+B143</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
         <v>96</v>
       </c>
-      <c r="B144" s="2">
-        <f>(B157*0.669*0.67*(16/12))+(B157*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="s">
         <v>97</v>
       </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>98</v>
-      </c>
-      <c r="I144" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -3817,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -3948,29 +3949,29 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>95</v>
+      </c>
+      <c r="B170" s="2">
+        <f>2.65+B169</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
         <v>96</v>
       </c>
-      <c r="B170" s="2">
-        <f>(B183*0.669*0.67*(16/12))+(B183*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" t="s">
         <v>97</v>
       </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>98</v>
-      </c>
-      <c r="I170" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -4330,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -4461,29 +4462,29 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>95</v>
+      </c>
+      <c r="B196" s="2">
+        <f>2.65+B195</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" t="s">
         <v>96</v>
       </c>
-      <c r="B196" s="2">
-        <f>(B209*0.669*0.67*(16/12))+(B209*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196" t="s">
-        <v>8</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" t="s">
         <v>97</v>
       </c>
-      <c r="G196" t="s">
-        <v>20</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>98</v>
-      </c>
-      <c r="I196" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -4843,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -4974,29 +4975,29 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>95</v>
+      </c>
+      <c r="B222" s="2">
+        <f>2.65+B221</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
         <v>96</v>
       </c>
-      <c r="B222" s="2">
-        <f>(B235*0.669*0.67*(16/12))+(B235*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C222" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
+        <v>20</v>
+      </c>
+      <c r="H222" t="s">
         <v>97</v>
       </c>
-      <c r="G222" t="s">
-        <v>20</v>
-      </c>
-      <c r="H222" t="s">
+      <c r="I222" t="s">
         <v>98</v>
-      </c>
-      <c r="I222" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -5356,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
@@ -5487,29 +5488,29 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>95</v>
+      </c>
+      <c r="B248" s="2">
+        <f>2.65+B247</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
         <v>96</v>
       </c>
-      <c r="B248" s="2">
-        <f>(B261*0.669*0.67*(16/12))+(B261*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C248" t="s">
-        <v>18</v>
-      </c>
-      <c r="E248" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" t="s">
         <v>97</v>
       </c>
-      <c r="G248" t="s">
-        <v>20</v>
-      </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>98</v>
-      </c>
-      <c r="I248" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -5869,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -6000,29 +6001,29 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>95</v>
+      </c>
+      <c r="B274" s="2">
+        <f>2.65+B273</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" t="s">
         <v>96</v>
       </c>
-      <c r="B274" s="2">
-        <f>(B287*0.669*0.67*(16/12))+(B287*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C274" t="s">
-        <v>18</v>
-      </c>
-      <c r="E274" t="s">
-        <v>8</v>
-      </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
+        <v>20</v>
+      </c>
+      <c r="H274" t="s">
         <v>97</v>
       </c>
-      <c r="G274" t="s">
-        <v>20</v>
-      </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>98</v>
-      </c>
-      <c r="I274" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -6382,7 +6383,7 @@
         <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -6513,29 +6514,29 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>95</v>
+      </c>
+      <c r="B300" s="2">
+        <f>2.65+B299</f>
+        <v>4.0213596052052338</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300" t="s">
         <v>96</v>
       </c>
-      <c r="B300" s="2">
-        <f>(B313*0.669*0.67*(16/12))+(B313*0.669*0.32*(44/12))</f>
-        <v>3.053731343283582</v>
-      </c>
-      <c r="C300" t="s">
-        <v>18</v>
-      </c>
-      <c r="E300" t="s">
-        <v>8</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="G300" t="s">
+        <v>20</v>
+      </c>
+      <c r="H300" t="s">
         <v>97</v>
       </c>
-      <c r="G300" t="s">
-        <v>20</v>
-      </c>
-      <c r="H300" t="s">
+      <c r="I300" t="s">
         <v>98</v>
-      </c>
-      <c r="I300" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">

--- a/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-biogas.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="116">
   <si>
     <t>Activity</t>
   </si>
@@ -337,15 +337,9 @@
     <t>process</t>
   </si>
   <si>
-    <t>Electricity, at power plant/from autothermal reforming of biogas, pre, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Electricity, at power plant/biogas, pre, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>Biogas, in ATR H2-CC/pre, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -377,6 +371,15 @@
   </si>
   <si>
     <t>Particulates, &lt; 2.5 um</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/from autothermal reforming of biogas, pre, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>electricity production, at power plant/biogas, pre, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:P364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -821,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -845,7 +848,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -881,7 +884,7 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -899,13 +902,13 @@
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>103</v>
+      <c r="H12" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" s="6">
         <v>6.4290000000000003</v>
@@ -923,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -979,7 +982,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1015,7 +1018,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1033,12 +1036,12 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2">
         <v>2.0100000000000001E-12</v>
@@ -1056,12 +1059,12 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>5.2900000000000003E-2</v>
@@ -1079,12 +1082,12 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2">
         <v>7.7000000000000001E-5</v>
@@ -1102,12 +1105,12 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2">
         <v>6.3899999999999995E-5</v>
@@ -1125,7 +1128,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1139,7 +1142,7 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>54</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2">
         <v>5.2699999999999999E-7</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2">
         <v>1.36E-5</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2">
         <v>1.4499999999999999E-7</v>
